--- a/biology/Médecine/Sphincter_précapillaire/Sphincter_précapillaire.xlsx
+++ b/biology/Médecine/Sphincter_précapillaire/Sphincter_précapillaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sphincter_pr%C3%A9capillaire</t>
+          <t>Sphincter_précapillaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sphincter pré-capillaire est un petit muscle circulaire permettant de contrôler la circulation du sang dans un vaisseau capillaire sanguin.
 Les capillaires sont le lieu d'échanges entre le sang et les organes. Plusieurs propriétés des vaisseaux et de la circulation facilitent les échanges à ce niveau.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sphincter_pr%C3%A9capillaire</t>
+          <t>Sphincter_précapillaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Précis d'histologie humaine, Roger Coujard, Jacques Poirier, Presses Université Laval, 1980
  Portail de la médecine                     </t>
